--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A43E6AD-79BD-5A45-B911-8FEA8E360FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D7C302-B33A-7D4D-B1E7-B315907E634A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="25440" windowHeight="14700" activeTab="1" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">Darwin Shikra Sodhi collected all the data </t>
   </si>
@@ -132,9 +132,6 @@
     <t>Showed that in site conditions were the best in modeling juvenile height</t>
   </si>
   <si>
-    <t>key word search: Seedling OR "Seedling density" OR "Seedling disease" OR "germinates" OR "Janzen" OR "Connell" OR "Latitudinal diversity gradient"</t>
-  </si>
-  <si>
     <t>Do common ectomycorrhizal networks play a role in dampening competition amongst conifer species?</t>
   </si>
   <si>
@@ -162,7 +159,52 @@
     <t xml:space="preserve">Armillaria ostoyae affects Douglas-fir, western hemlock and western redcedar seedling survival </t>
   </si>
   <si>
-    <t>yeilded: 827 results</t>
+    <t xml:space="preserve">yeilded: 827 results from forestry </t>
+  </si>
+  <si>
+    <t>Survival and growth of western larch seedlings in relation to light availability</t>
+  </si>
+  <si>
+    <t>Karel klinka</t>
+  </si>
+  <si>
+    <t>Western larch species reduced in survival under low and intermediate light conditions</t>
+  </si>
+  <si>
+    <t>Regeneration, growth and productivity of trees within gaps of old-growth forests on the outer coast (CWHvh2) of British Columbia</t>
+  </si>
+  <si>
+    <t>Regeneration of tree is highly dependent on canopy gaps</t>
+  </si>
+  <si>
+    <t>Regeneration patterns in the Mountain hemlock zone</t>
+  </si>
+  <si>
+    <t>Bob brett</t>
+  </si>
+  <si>
+    <t>Regeneration of trees is dependent on snow cover especially over high elevations</t>
+  </si>
+  <si>
+    <t>Roles of the fungal and oomycetes species in the decline of birch in South-central Kootenay area in British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>Carlo Sarmiento</t>
+  </si>
+  <si>
+    <t>Fomes fomentarius, Cryptosporella tomentella, Armillaria ostoyae and Cerrena unicolor are possible pathogens that could be contributing to birch decline </t>
+  </si>
+  <si>
+    <t>Mycorrhizal fungi : unlocking their ecology and role in the establishment and growth performance of different conifer species in nutrient-poor coastal forests</t>
+  </si>
+  <si>
+    <t>Shannon Guichon</t>
+  </si>
+  <si>
+    <t>Though diversity was similar, ectomycorrhizal and saprophytic fungal community composition significantly differed between Cedar-Hemlock and Hemlock-Amabilis fir forests;  mycorrhizae were widespread in CH forests, but rare in HA forests.</t>
+  </si>
+  <si>
+    <t>key word search: Janzen\-Connell OR hypothesis OR Seedling OR density OR Seedling OR disease OR negative OR density\-dependence OR Latitudinal OR diversity OR gradient</t>
   </si>
 </sst>
 </file>
@@ -534,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -670,44 +712,114 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
       <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
       </c>
       <c r="C11">
         <v>1954</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
       <c r="C12">
         <v>2006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>1997</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>2001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>1997</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>2013</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>2015</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -719,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D87596-7102-F848-BE2A-B27E4603FB08}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -747,12 +859,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D7C302-B33A-7D4D-B1E7-B315907E634A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECF7569-A1DF-3241-A725-4F46D68D0BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14700" activeTab="1" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">Armillaria ostoyae affects Douglas-fir, western hemlock and western redcedar seedling survival </t>
   </si>
   <si>
-    <t xml:space="preserve">yeilded: 827 results from forestry </t>
-  </si>
-  <si>
     <t>Survival and growth of western larch seedlings in relation to light availability</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>key word search: Janzen\-Connell OR hypothesis OR Seedling OR density OR Seedling OR disease OR negative OR density\-dependence OR Latitudinal OR diversity OR gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeilded: 2099 results from forestry </t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -754,72 +754,72 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
       </c>
       <c r="C13">
         <v>1997</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>2001</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
       </c>
       <c r="C15">
         <v>1997</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
       </c>
       <c r="C16">
         <v>2013</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
       </c>
       <c r="C17">
         <v>2015</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D87596-7102-F848-BE2A-B27E4603FB08}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -859,12 +859,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECF7569-A1DF-3241-A725-4F46D68D0BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D268A-C48D-8946-A249-349C8F4BAF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14700" activeTab="1" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView xWindow="500" yWindow="1540" windowWidth="25440" windowHeight="14680" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
   <si>
     <t xml:space="preserve">Darwin Shikra Sodhi collected all the data </t>
   </si>
@@ -51,18 +51,12 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Author </t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Pathology of conifer seed and seedlings on natural and disturbed forest floor seedbeds in the Engelmann spruce-subalpine fir zone of the interior of British Columbia</t>
   </si>
   <si>
-    <t>Jian Wen Zhong</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -72,15 +66,9 @@
     <t>Effects of Paenibacillus polymyxa and soil nitrogen on lodgepole pine (Pinus contorta var. latifoliar (Dougl.) Engelm.) seedling growth</t>
   </si>
   <si>
-    <t>Henry Yang</t>
-  </si>
-  <si>
     <t>Found Parnibacillus Polymyxa effected seedling growth of lodgepole pine</t>
   </si>
   <si>
-    <t xml:space="preserve">Lori Daniels </t>
-  </si>
-  <si>
     <t>Structure and regeneration of old-growth Thuja plicata stands near Vancouver, British Columbia</t>
   </si>
   <si>
@@ -90,81 +78,54 @@
     <t>Mycorrhizal facilitation of kin recognition in interior Douglas-fir (Pseudotsuga menziesii var. glauca)</t>
   </si>
   <si>
-    <t>Amanda Asay</t>
-  </si>
-  <si>
     <t>Successful establishment of Douglas fir had strongly to do with mycorrhizal fungi present however in the field non-kin were selected for</t>
   </si>
   <si>
     <t>Intraspecific competition processes and their management within black spruce (Picea mariana (Mill) B.S.P.) stands</t>
   </si>
   <si>
-    <t>Francis Newton</t>
-  </si>
-  <si>
     <t>Black spruce is highly competitive in density stressed environments which may also lead to higher seedling survival/germination</t>
   </si>
   <si>
     <t>Interspecific interactions in mixed stands of paper birch (Betula papyrifera) and interior Douglas-fir (Pseudotsuga mensiezii, var. glauca)</t>
   </si>
   <si>
-    <t>Deon Louw</t>
-  </si>
-  <si>
     <t>found Armillaria root disease for caused reduced seedling establishement and competition with Dougals fir</t>
   </si>
   <si>
     <t>Early growth and development of Douglas-fir in relation to interspecific competition</t>
   </si>
   <si>
-    <t>David Brand</t>
-  </si>
-  <si>
     <t>Largest predictor of tree survival was neigbouring bush length</t>
   </si>
   <si>
     <t>Modelling juvenile height in mixed species, even aged interior cedar-hemlock stands</t>
   </si>
   <si>
-    <t>Edgar Froese</t>
-  </si>
-  <si>
     <t>Showed that in site conditions were the best in modeling juvenile height</t>
   </si>
   <si>
     <t>Do common ectomycorrhizal networks play a role in dampening competition amongst conifer species?</t>
   </si>
   <si>
-    <t>Cory Wallace</t>
-  </si>
-  <si>
     <t>Mycorrihizal fungi reduced intraspecific competition in Douglas fir but show no responses for ponderosa pines</t>
   </si>
   <si>
     <t>A flagging disease of western white pine</t>
   </si>
   <si>
-    <t>Alexander Molnar</t>
-  </si>
-  <si>
     <t>Pullularia pullulans affects seedling survival of western white pine</t>
   </si>
   <si>
     <t>Host responses in Douglas-fir, western hemlock and western redcedar to infection by Armillaria ostoyae and Armillaria sinapina</t>
   </si>
   <si>
-    <t>Michelle Clearly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Armillaria ostoyae affects Douglas-fir, western hemlock and western redcedar seedling survival </t>
   </si>
   <si>
     <t>Survival and growth of western larch seedlings in relation to light availability</t>
   </si>
   <si>
-    <t>Karel klinka</t>
-  </si>
-  <si>
     <t>Western larch species reduced in survival under low and intermediate light conditions</t>
   </si>
   <si>
@@ -177,34 +138,298 @@
     <t>Regeneration patterns in the Mountain hemlock zone</t>
   </si>
   <si>
-    <t>Bob brett</t>
-  </si>
-  <si>
     <t>Regeneration of trees is dependent on snow cover especially over high elevations</t>
   </si>
   <si>
     <t>Roles of the fungal and oomycetes species in the decline of birch in South-central Kootenay area in British Columbia, Canada</t>
   </si>
   <si>
-    <t>Carlo Sarmiento</t>
-  </si>
-  <si>
     <t>Fomes fomentarius, Cryptosporella tomentella, Armillaria ostoyae and Cerrena unicolor are possible pathogens that could be contributing to birch decline </t>
   </si>
   <si>
     <t>Mycorrhizal fungi : unlocking their ecology and role in the establishment and growth performance of different conifer species in nutrient-poor coastal forests</t>
   </si>
   <si>
-    <t>Shannon Guichon</t>
-  </si>
-  <si>
     <t>Though diversity was similar, ectomycorrhizal and saprophytic fungal community composition significantly differed between Cedar-Hemlock and Hemlock-Amabilis fir forests;  mycorrhizae were widespread in CH forests, but rare in HA forests.</t>
   </si>
   <si>
-    <t>key word search: Janzen\-Connell OR hypothesis OR Seedling OR density OR Seedling OR disease OR negative OR density\-dependence OR Latitudinal OR diversity OR gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeilded: 2099 results from forestry </t>
+    <t>Study Site</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>JZ patterns</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstNameInitial</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Zhong</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniels </t>
+  </si>
+  <si>
+    <t>Asay</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Louw</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Froese</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>Molnar</t>
+  </si>
+  <si>
+    <t>Clearly</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
+    <t>Guichon</t>
+  </si>
+  <si>
+    <t>Klinka</t>
+  </si>
+  <si>
+    <t>Insect and disease risk factors in established interior spruce plantations</t>
+  </si>
+  <si>
+    <t>Conzens</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Prince George</t>
+  </si>
+  <si>
+    <t>Spruce</t>
+  </si>
+  <si>
+    <t>A bud midge, likely Rhabdophaga swainei Felt (Diptera: Cecidomyiidae), and a terminal weevil, Pissodes strobi Peck (Coleoptera: Curculionidae), were found to consistently infest and damage a significant number of immature interior spruce tree</t>
+  </si>
+  <si>
+    <t>Must include terms: forest* AND British Columbia*
+And then include one of these: seedling* OR germinant*
+And one of these: density dependence OR Janzen-Connell OR Latitudinal
+gradient OR coexist* OR diversity OR interspec* OR disease OR pathogen</t>
+  </si>
+  <si>
+    <t>Keenan</t>
+  </si>
+  <si>
+    <t>Structure and function of western red cedar and western hemlock forests on northern Vancouver Island</t>
+  </si>
+  <si>
+    <t>Vancouver Island</t>
+  </si>
+  <si>
+    <t>Western red cedar, Western hemlock, amablilis fir</t>
+  </si>
+  <si>
+    <t>seedlings regenerated following cutting on the two types exhibit large differences in growth. Seedlings on cutovers in the CH type grow slowly and have symptoms of nutrient defiency; those in the HA type grow relatively rapidly with no sign of nutrient deficiency. </t>
+  </si>
+  <si>
+    <t>Sicamous Creek research forest</t>
+  </si>
+  <si>
+    <t>Engelmann spruce and subalpine fir</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>Seymour</t>
+  </si>
+  <si>
+    <t>Tuhja plicata, Tsuga heterophylla and Abies amanilis</t>
+  </si>
+  <si>
+    <t>Post-fire regeneration and survival of whitebark pine (Pinus albicaulis engelm.)</t>
+  </si>
+  <si>
+    <t>Moody</t>
+  </si>
+  <si>
+    <t>whitebark pine</t>
+  </si>
+  <si>
+    <t>Manning park</t>
+  </si>
+  <si>
+    <t>Pattern and process in old-growth temperate rainforests of southern British Columbia</t>
+  </si>
+  <si>
+    <t>Arsenault</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Western hemlock, western red cedar, silver fir, douglas fir, red alder, bigleaf maple and balck cotton wood</t>
+  </si>
+  <si>
+    <t>Yes if we test for specific pathogens</t>
+  </si>
+  <si>
+    <t>fire regime determines old growth forest patterns</t>
+  </si>
+  <si>
+    <t>Adams Lake and Malakwa</t>
+  </si>
+  <si>
+    <t>Paper birch and Douglas fir</t>
+  </si>
+  <si>
+    <t>Root-zone soil temperature: sources of variation and some effects on planted conifer seedlings in high-elevation forest openings in the interior of British Columbia</t>
+  </si>
+  <si>
+    <t>Balisky</t>
+  </si>
+  <si>
+    <t>Williams Lake</t>
+  </si>
+  <si>
+    <t>Engelmann spruce and lodgepole pine</t>
+  </si>
+  <si>
+    <t>Regulation of cold hardiness in seedlings of western red cedar, yellow cedar and white spruce</t>
+  </si>
+  <si>
+    <t>Silim</t>
+  </si>
+  <si>
+    <t>western red cedar, yellow cedar and white spruce</t>
+  </si>
+  <si>
+    <t>Western Larch</t>
+  </si>
+  <si>
+    <t>Lodgepole Pine</t>
+  </si>
+  <si>
+    <t>Douglas fir</t>
+  </si>
+  <si>
+    <t>Black Spruce</t>
+  </si>
+  <si>
+    <t>Western white pine</t>
+  </si>
+  <si>
+    <t>Douglas-fir, western hemlock and western redcedar</t>
+  </si>
+  <si>
+    <t>Alex fraser</t>
+  </si>
+  <si>
+    <t>Newfoundland</t>
+  </si>
+  <si>
+    <t>Cascade mountains</t>
+  </si>
+  <si>
+    <t>Quesnel highlands</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>UBC</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>Birch</t>
+  </si>
+  <si>
+    <t>Kootenay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrow park </t>
+  </si>
+  <si>
+    <t>yeilded: 371</t>
+  </si>
+  <si>
+    <t>Okanagan falls</t>
+  </si>
+  <si>
+    <t>Prince Rupert</t>
+  </si>
+  <si>
+    <t>Tetrahedron provincial park</t>
+  </si>
+  <si>
+    <t>Understory shrubs</t>
+  </si>
+  <si>
+    <t>Western redcedar and western hemlock</t>
   </si>
 </sst>
 </file>
@@ -257,11 +482,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,254 +804,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>1997</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>2015</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>1994</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>2013</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>1996</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>2015</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>1985</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>2013</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>1954</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>2006</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
         <v>1997</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>2001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>1997</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>2013</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
         <v>2015</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>1994</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2013</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>1996</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18">
         <v>1985</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>2000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>2013</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>1954</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>1993</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20">
         <v>2006</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>1997</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14">
-        <v>2001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="C15">
-        <v>1997</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>2013</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17">
-        <v>2015</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
+      <c r="D21">
+        <v>1995</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>1993</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>1991</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -831,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D87596-7102-F848-BE2A-B27E4603FB08}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -857,14 +1434,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>55</v>
+    <row r="5" spans="1:1" ht="409.6">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D268A-C48D-8946-A249-349C8F4BAF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09B26B-4B83-9341-ABC0-B67AEF7F9A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1540" windowWidth="25440" windowHeight="14680" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView xWindow="8540" yWindow="460" windowWidth="25440" windowHeight="14760" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
   <si>
     <t xml:space="preserve">Darwin Shikra Sodhi collected all the data </t>
   </si>
@@ -267,12 +267,6 @@
     <t>A bud midge, likely Rhabdophaga swainei Felt (Diptera: Cecidomyiidae), and a terminal weevil, Pissodes strobi Peck (Coleoptera: Curculionidae), were found to consistently infest and damage a significant number of immature interior spruce tree</t>
   </si>
   <si>
-    <t>Must include terms: forest* AND British Columbia*
-And then include one of these: seedling* OR germinant*
-And one of these: density dependence OR Janzen-Connell OR Latitudinal
-gradient OR coexist* OR diversity OR interspec* OR disease OR pathogen</t>
-  </si>
-  <si>
     <t>Keenan</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t xml:space="preserve">Arrow park </t>
   </si>
   <si>
-    <t>yeilded: 371</t>
-  </si>
-  <si>
     <t>Okanagan falls</t>
   </si>
   <si>
@@ -430,6 +421,66 @@
   </si>
   <si>
     <t>Western redcedar and western hemlock</t>
+  </si>
+  <si>
+    <t>I entered the following search terms: forest\* AND "British Columbia" AND "seedling\*" AND "germinant\*" OR "density dependence" OR "Janzen\-Connell" OR "Latitudinal gradient" OR "coexist\*" OR "interspec\*" OR "disease" OR "pathogen" and searched only for in cIRcle option</t>
+  </si>
+  <si>
+    <t>yeilded: 1667</t>
+  </si>
+  <si>
+    <t>Tomentosus root rot of white spruce in central British Columbia</t>
+  </si>
+  <si>
+    <t>Merler</t>
+  </si>
+  <si>
+    <t>White spruce</t>
+  </si>
+  <si>
+    <t>Growth of Interior spruce seedlings on forest floor materials</t>
+  </si>
+  <si>
+    <t>Heineman</t>
+  </si>
+  <si>
+    <t>Smithers BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang </t>
+  </si>
+  <si>
+    <t>Malcom Knapp</t>
+  </si>
+  <si>
+    <t>Competition between paper birch and douglas-fia in two different biogeoclimatic zones of British Columbia</t>
+  </si>
+  <si>
+    <t>The structure and regeneration pattern of old-growth stands in the Moist Cold Engelmann Spruce - Subalpine Fir subzone of Central British Columbia</t>
+  </si>
+  <si>
+    <t>Varga</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Analysis and modelling of interspecies competition during forest secondary succession</t>
+  </si>
+  <si>
+    <t>Bellefluer</t>
+  </si>
+  <si>
+    <t>Factors affecting tree regeneration following a severe wind disturbance in Coastal British Columbia</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Stanley Park</t>
+  </si>
+  <si>
+    <t>Coniferous and deciduos trees</t>
   </si>
 </sst>
 </file>
@@ -482,14 +533,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -852,13 +900,13 @@
         <v>1997</v>
       </c>
       <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -878,13 +926,13 @@
         <v>2015</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -904,13 +952,13 @@
         <v>1994</v>
       </c>
       <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -930,13 +978,13 @@
         <v>2013</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -956,13 +1004,13 @@
         <v>1996</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -982,13 +1030,13 @@
         <v>2015</v>
       </c>
       <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -1008,13 +1056,13 @@
         <v>1985</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -1034,13 +1082,13 @@
         <v>2000</v>
       </c>
       <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
         <v>118</v>
       </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -1060,13 +1108,13 @@
         <v>2013</v>
       </c>
       <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
         <v>120</v>
       </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -1086,13 +1134,13 @@
         <v>1954</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>26</v>
@@ -1112,13 +1160,13 @@
         <v>2006</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
@@ -1138,13 +1186,13 @@
         <v>1997</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -1164,10 +1212,10 @@
         <v>2001</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -1187,13 +1235,13 @@
         <v>1997</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -1213,13 +1261,13 @@
         <v>2013</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>36</v>
@@ -1239,13 +1287,13 @@
         <v>2015</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1271,7 +1319,7 @@
         <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
         <v>76</v>
@@ -1279,10 +1327,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>73</v>
@@ -1291,24 +1339,24 @@
         <v>1993</v>
       </c>
       <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
         <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -1317,21 +1365,21 @@
         <v>2006</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
         <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
@@ -1340,24 +1388,24 @@
         <v>1995</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
         <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -1366,21 +1414,21 @@
         <v>1993</v>
       </c>
       <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
         <v>104</v>
       </c>
-      <c r="F22" t="s">
-        <v>105</v>
-      </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
         <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -1389,13 +1437,148 @@
         <v>1991</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>1984</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>1991</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>1997</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27">
+        <v>1997</v>
+      </c>
+      <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28">
+        <v>1978</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>2011</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1408,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D87596-7102-F848-BE2A-B27E4603FB08}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1434,14 +1617,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="409.6">
-      <c r="A5" s="4" t="s">
-        <v>77</v>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09B26B-4B83-9341-ABC0-B67AEF7F9A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C5840-D64D-8B46-8926-31BB676EDE97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="460" windowWidth="25440" windowHeight="14760" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14760" activeTab="1" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
   <si>
     <t xml:space="preserve">Darwin Shikra Sodhi collected all the data </t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Coniferous and deciduos trees</t>
+  </si>
+  <si>
+    <t>I would read abstract of theses that seemed relevant and if actually relevant then I would read methods and results</t>
   </si>
 </sst>
 </file>
@@ -852,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1580,6 +1583,9 @@
       <c r="G29" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1589,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D87596-7102-F848-BE2A-B27E4603FB08}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1624,6 +1630,11 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>130</v>
       </c>
     </row>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C5840-D64D-8B46-8926-31BB676EDE97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC57937A-7CC8-AF44-8259-1082B8718AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14760" activeTab="1" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="25640" windowHeight="14800" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="195">
   <si>
     <t xml:space="preserve">Darwin Shikra Sodhi collected all the data </t>
   </si>
@@ -309,9 +309,6 @@
     <t>whitebark pine</t>
   </si>
   <si>
-    <t>Manning park</t>
-  </si>
-  <si>
     <t>Pattern and process in old-growth temperate rainforests of southern British Columbia</t>
   </si>
   <si>
@@ -484,6 +481,144 @@
   </si>
   <si>
     <t>I would read abstract of theses that seemed relevant and if actually relevant then I would read methods and results</t>
+  </si>
+  <si>
+    <t>forest\* AND "British Columbia" AND "seedling\*" AND "germinant\*" AND "pathogen" AND "Janzen\-Connell" OR "density dependence" OR "coexist\*" OR "disease" OR "Growth"</t>
+  </si>
+  <si>
+    <t>forest\* AND "British Columbia" AND "seedling\*" AND "germinant\*" AND "pathogen" AND "Janzen\-Connell" OR "density dependence" OR "coexist\*" OR "disease" OR "Growth" OR "Survival"</t>
+  </si>
+  <si>
+    <t>yeilded: 299</t>
+  </si>
+  <si>
+    <t>forest\* AND "British Columbia" AND "seedling\*" AND "germinant\*" AND "pathogen" AND "Janzen\-Connell" AND "coexist\*" OR "density dependence"  OR "disease" OR "Growth" OR "Survival"</t>
+  </si>
+  <si>
+    <t>yeilded: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest\* AND "British Columbia" AND "seedling\*" AND "germinant\*" AND "pathogen" AND "Janzen\-Connell" AND "Growth" OR "density dependence" OR "coexist\*"OR  "disease" OR "Survival" </t>
+  </si>
+  <si>
+    <t>Plant growth promoting rhizobacteria (PGPR) for interior spruce (Picea engelmannii x P. glauca) seedlings</t>
+  </si>
+  <si>
+    <t>Shishido</t>
+  </si>
+  <si>
+    <t>Various see table 2.1</t>
+  </si>
+  <si>
+    <t>interior spruce and lodgepole pine</t>
+  </si>
+  <si>
+    <t>Assessment of survival and growth prospects of seedlings of Douglas fir, Psuedotsuga [sic] menziesii.</t>
+  </si>
+  <si>
+    <t>Huntly</t>
+  </si>
+  <si>
+    <t>Nanaimo</t>
+  </si>
+  <si>
+    <t>Gap-phase community dynamics in a sub-alpine old growth forest</t>
+  </si>
+  <si>
+    <t>Lertzman</t>
+  </si>
+  <si>
+    <t>Cypress Mountain</t>
+  </si>
+  <si>
+    <t>Pacific silver fir (Abies amabilis), western hemlock (Tsuga heterophylla). mountain hemlock (Tsuga mertensiana). and Alaska yellow-cedar (Chamaecyparis nootkatensis)</t>
+  </si>
+  <si>
+    <t>Manning park/other parks in BC</t>
+  </si>
+  <si>
+    <t>Western hemlock regeneration on coarse woody debris is facilitated by linkage into a mycorrhizal network in an old-growth forest</t>
+  </si>
+  <si>
+    <t>Orrego</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Western Hemlock</t>
+  </si>
+  <si>
+    <t>Illahie Inlet</t>
+  </si>
+  <si>
+    <t>Natural regeneration in a cutover (clearcut) and the adjacent old-growth stand on the outer central coast of British Columbia</t>
+  </si>
+  <si>
+    <t>Mcclarnon</t>
+  </si>
+  <si>
+    <t>western redcedar, western hemlock yellow cedar, lodgepole pine and western yew</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Incorporating stand-health metrics into monitoring the effects of soil disturbance during logging on long-term forest productivity</t>
+  </si>
+  <si>
+    <t>Interior BC</t>
+  </si>
+  <si>
+    <t>National regeneration potential of Douglas-fir following wildfire and clearcut harvesting</t>
+  </si>
+  <si>
+    <t>Barker</t>
+  </si>
+  <si>
+    <t>Barriere, BC</t>
+  </si>
+  <si>
+    <t>Kayahara</t>
+  </si>
+  <si>
+    <t>The effect of coarse woody debris on site productivity of some forest sites in southwestern British Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western hemlock,  silver fir, douglas fir, </t>
+  </si>
+  <si>
+    <t>North Vancouver</t>
+  </si>
+  <si>
+    <t>Role of mycorrhizal networks in dry Douglas-fir forests</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Kamploops</t>
+  </si>
+  <si>
+    <t>Douglas fir and subalpine fir</t>
+  </si>
+  <si>
+    <t>Influence of the disturbance regime on forest succession in the coastal western hemlock drier maritime subzone, British Columbia</t>
+  </si>
+  <si>
+    <t>Mailly</t>
+  </si>
+  <si>
+    <t>Douglas Fir, Western Red cedar and Western Hemlock</t>
+  </si>
+  <si>
+    <t>Studies on early development and endogenous gibberellins in red alder (Alnus rubra Bong.)</t>
+  </si>
+  <si>
+    <t>Elliot</t>
+  </si>
+  <si>
+    <t>Red Alder</t>
   </si>
 </sst>
 </file>
@@ -855,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -909,7 +1044,7 @@
         <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -929,13 +1064,13 @@
         <v>2015</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -981,13 +1116,13 @@
         <v>2013</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1007,10 +1142,10 @@
         <v>1996</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
         <v>84</v>
@@ -1033,13 +1168,13 @@
         <v>2015</v>
       </c>
       <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
         <v>99</v>
       </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -1059,13 +1194,13 @@
         <v>1985</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -1085,13 +1220,13 @@
         <v>2000</v>
       </c>
       <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" t="s">
-        <v>118</v>
-      </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -1111,13 +1246,13 @@
         <v>2013</v>
       </c>
       <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -1137,13 +1272,13 @@
         <v>1954</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>26</v>
@@ -1163,13 +1298,13 @@
         <v>2006</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
@@ -1189,13 +1324,13 @@
         <v>1997</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -1215,10 +1350,10 @@
         <v>2001</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -1238,13 +1373,13 @@
         <v>1997</v>
       </c>
       <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
         <v>126</v>
       </c>
-      <c r="F15" t="s">
-        <v>127</v>
-      </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -1264,13 +1399,13 @@
         <v>2013</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>36</v>
@@ -1293,10 +1428,10 @@
         <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1322,7 +1457,7 @@
         <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
         <v>76</v>
@@ -1348,7 +1483,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1368,7 +1503,7 @@
         <v>2006</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
         <v>90</v>
@@ -1379,10 +1514,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
@@ -1391,24 +1526,24 @@
         <v>1995</v>
       </c>
       <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
         <v>94</v>
       </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
-      </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
         <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -1417,21 +1552,21 @@
         <v>1993</v>
       </c>
       <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
         <v>103</v>
       </c>
-      <c r="F22" t="s">
-        <v>104</v>
-      </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
         <v>105</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -1443,18 +1578,18 @@
         <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
         <v>131</v>
-      </c>
-      <c r="B24" t="s">
-        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -1463,21 +1598,21 @@
         <v>1984</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
         <v>134</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -1486,21 +1621,21 @@
         <v>1991</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -1509,64 +1644,64 @@
         <v>1997</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
         <v>140</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>141</v>
-      </c>
-      <c r="C27" t="s">
-        <v>142</v>
       </c>
       <c r="D27">
         <v>1997</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
         <v>143</v>
       </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28">
         <v>1978</v>
       </c>
       <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
         <v>94</v>
-      </c>
-      <c r="G28" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
         <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>146</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
@@ -1575,17 +1710,267 @@
         <v>2011</v>
       </c>
       <c r="E29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
         <v>147</v>
       </c>
-      <c r="F29" t="s">
-        <v>148</v>
-      </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>1997</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>1960</v>
+      </c>
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>1989</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33">
+        <v>2018</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>2016</v>
+      </c>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>2010</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17">
+      <c r="A37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37">
+        <v>2000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>2008</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>1998</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17">
+      <c r="A40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>1980</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1595,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D87596-7102-F848-BE2A-B27E4603FB08}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1625,17 +2010,57 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC57937A-7CC8-AF44-8259-1082B8718AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64543ED1-9703-7646-A4E0-B537A1E631AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="25640" windowHeight="14800" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="226">
   <si>
     <t xml:space="preserve">Darwin Shikra Sodhi collected all the data </t>
   </si>
@@ -291,9 +291,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Maybe</t>
-  </si>
-  <si>
     <t>Seymour</t>
   </si>
   <si>
@@ -390,12 +387,6 @@
     <t>Table 2</t>
   </si>
   <si>
-    <t>UBC</t>
-  </si>
-  <si>
-    <t>Soil</t>
-  </si>
-  <si>
     <t>Birch</t>
   </si>
   <si>
@@ -619,6 +610,108 @@
   </si>
   <si>
     <t>Red Alder</t>
+  </si>
+  <si>
+    <t>Curran</t>
+  </si>
+  <si>
+    <t>Slashburning effects on tree growth and nutrients in the Coastal Western Hemlock zone, Southern British Columbia : longer term trends</t>
+  </si>
+  <si>
+    <t>Douglas fir, western red cedar and western hemlock</t>
+  </si>
+  <si>
+    <t>South coastal BC</t>
+  </si>
+  <si>
+    <t>Amabilis fir</t>
+  </si>
+  <si>
+    <t>Husted</t>
+  </si>
+  <si>
+    <t>The relationship between foliar and soil chemistry, growth parameters, and variable height growth in advance regeneration of amabilis fir</t>
+  </si>
+  <si>
+    <t>Assessing and promoting windfirmness in conifers in British Columbia</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Nelson, Kamloops and Cariboo</t>
+  </si>
+  <si>
+    <t>Douglas fir and sitka spruce</t>
+  </si>
+  <si>
+    <t>Stand and tree dynamics in uneven-aged interior Douglas-fir stands</t>
+  </si>
+  <si>
+    <t>Nienaber</t>
+  </si>
+  <si>
+    <t>Botwell</t>
+  </si>
+  <si>
+    <t>The nitrogen nutrition of lodgepole pine (Pinus contorta var. contorta) and Sitka spruce (Picea sitchensis (Bong.) Carr.) on a cedar-hemlock cutover on northern Vancouver Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lodgepole Pine, western white pine and sitka spurce </t>
+  </si>
+  <si>
+    <t>The effects of natural and anthropogenic disturbances on the structure and composition of early-successional plant communities in the Interior Cedar-Hemlock (ICH) zone of southern British Columbia</t>
+  </si>
+  <si>
+    <t>Corriveau</t>
+  </si>
+  <si>
+    <t>Revelstoke</t>
+  </si>
+  <si>
+    <t>Lots</t>
+  </si>
+  <si>
+    <t>Fraser</t>
+  </si>
+  <si>
+    <t>The influence of salal on planted hemlock and cedar saplings on northern Vancouver Island</t>
+  </si>
+  <si>
+    <t>Western hemlock and western red cedar</t>
+  </si>
+  <si>
+    <t>North Vancouver Island</t>
+  </si>
+  <si>
+    <t>Regeneration and small tree height increment in the interior Douglas-fir zone of the Rocky Mountain trench</t>
+  </si>
+  <si>
+    <t>Douglas fir, lodgepole pine, ponderosa pine, western larch, white spruce, paper birch and trembling aspen</t>
+  </si>
+  <si>
+    <t>Some seed-borne fungi of Dougals fir and their effect on germinating seed</t>
+  </si>
+  <si>
+    <t>Cockerill</t>
+  </si>
+  <si>
+    <t>Influence of stocking and density upon growth and yield of trees and stands of Coastal western hemlock</t>
+  </si>
+  <si>
+    <t>Osbourn</t>
+  </si>
+  <si>
+    <t>Haney BC</t>
+  </si>
+  <si>
+    <t>see table 2.1</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>Douglas fir and Ponderosa pines</t>
   </si>
 </sst>
 </file>
@@ -990,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1044,7 +1137,7 @@
         <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1064,13 +1157,13 @@
         <v>2015</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -1090,13 +1183,13 @@
         <v>1994</v>
       </c>
       <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
         <v>86</v>
       </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1116,10 +1209,10 @@
         <v>2013</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -1142,10 +1235,10 @@
         <v>1996</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
         <v>84</v>
@@ -1168,13 +1261,13 @@
         <v>2015</v>
       </c>
       <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
         <v>98</v>
       </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -1194,10 +1287,10 @@
         <v>1985</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
         <v>84</v>
@@ -1220,13 +1313,13 @@
         <v>2000</v>
       </c>
       <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
         <v>116</v>
       </c>
-      <c r="F9" t="s">
-        <v>117</v>
-      </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -1246,10 +1339,10 @@
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
         <v>84</v>
@@ -1272,13 +1365,13 @@
         <v>1954</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>26</v>
@@ -1298,13 +1391,13 @@
         <v>2006</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
@@ -1324,13 +1417,13 @@
         <v>1997</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -1350,10 +1443,13 @@
         <v>2001</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -1373,13 +1469,13 @@
         <v>1997</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -1399,13 +1495,13 @@
         <v>2013</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>36</v>
@@ -1428,10 +1524,10 @@
         <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1457,7 +1553,7 @@
         <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
         <v>76</v>
@@ -1483,7 +1579,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1491,10 +1587,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
         <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -1503,10 +1599,10 @@
         <v>2006</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
         <v>84</v>
@@ -1514,10 +1610,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
@@ -1526,24 +1622,24 @@
         <v>1995</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
         <v>100</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -1552,21 +1648,21 @@
         <v>1993</v>
       </c>
       <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
         <v>102</v>
       </c>
-      <c r="F22" t="s">
-        <v>103</v>
-      </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
         <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -1578,18 +1674,18 @@
         <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -1598,21 +1694,21 @@
         <v>1984</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -1621,21 +1717,21 @@
         <v>1991</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -1644,64 +1740,67 @@
         <v>1997</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D27">
         <v>1997</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D28">
         <v>1978</v>
       </c>
       <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
         <v>93</v>
-      </c>
-      <c r="G28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
@@ -1710,21 +1809,21 @@
         <v>2011</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
@@ -1733,21 +1832,21 @@
         <v>1997</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -1756,10 +1855,10 @@
         <v>1960</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
         <v>84</v>
@@ -1767,10 +1866,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
@@ -1779,10 +1878,10 @@
         <v>1989</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G32" t="s">
         <v>84</v>
@@ -1790,22 +1889,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D33">
         <v>2018</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G33" t="s">
         <v>84</v>
@@ -1813,10 +1912,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
         <v>51</v>
@@ -1825,10 +1924,10 @@
         <v>2000</v>
       </c>
       <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" t="s">
         <v>171</v>
-      </c>
-      <c r="F34" t="s">
-        <v>174</v>
       </c>
       <c r="G34" t="s">
         <v>84</v>
@@ -1836,10 +1935,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
@@ -1848,10 +1947,10 @@
         <v>2016</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
         <v>84</v>
@@ -1859,10 +1958,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
@@ -1871,10 +1970,10 @@
         <v>2010</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
         <v>84</v>
@@ -1882,22 +1981,22 @@
     </row>
     <row r="37" spans="1:7" ht="17">
       <c r="A37" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D37">
         <v>2000</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
@@ -1905,10 +2004,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
@@ -1917,10 +2016,10 @@
         <v>2008</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G38" t="s">
         <v>84</v>
@@ -1928,10 +2027,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
@@ -1940,10 +2039,10 @@
         <v>1998</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
         <v>84</v>
@@ -1951,10 +2050,10 @@
     </row>
     <row r="40" spans="1:7" ht="17">
       <c r="A40" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
@@ -1963,12 +2062,242 @@
         <v>1980</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F40" t="s">
+        <v>191</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17">
+      <c r="A41" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>1994</v>
+      </c>
+      <c r="E41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" t="s">
         <v>194</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17">
+      <c r="A42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>1989</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17">
+      <c r="A43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <v>1999</v>
+      </c>
+      <c r="E43" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44">
+        <v>1999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>2000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>2008</v>
+      </c>
+      <c r="E46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" t="s">
+        <v>211</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>1993</v>
+      </c>
+      <c r="E47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48">
+        <v>2003</v>
+      </c>
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17">
+      <c r="A49" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49">
+        <v>1959</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>1968</v>
+      </c>
+      <c r="E50" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2010,57 +2339,57 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64543ED1-9703-7646-A4E0-B537A1E631AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E933E0-824B-B445-B0DB-A96497C4B9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E933E0-824B-B445-B0DB-A96497C4B9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0271E402-3F04-1148-9412-D6637CF33AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView minimized="1" xWindow="2780" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$50</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -744,12 +747,18 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -764,11 +773,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1118,98 +1129,95 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>1993</v>
+      </c>
+      <c r="E4" t="s">
         <v>101</v>
       </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>1994</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
         <v>108</v>
@@ -1217,64 +1225,55 @@
       <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>1996</v>
+        <v>1978</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
+      <c r="A7" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -1300,542 +1299,536 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
+      <c r="A9" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>1959</v>
+      </c>
+      <c r="E11" t="s">
         <v>92</v>
       </c>
-      <c r="F10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <v>1954</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="G14" t="s">
         <v>84</v>
       </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
+      <c r="A15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
         <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>2013</v>
+        <v>1980</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>1985</v>
+        <v>2000</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
         <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>78</v>
+      <c r="A19" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>99</v>
+      <c r="A22" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>1993</v>
+        <v>1960</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17">
+      <c r="A23" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="D24">
-        <v>1984</v>
+        <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s">
-        <v>129</v>
+        <v>215</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
         <v>93</v>
       </c>
+      <c r="H25" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>1997</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D28">
-        <v>1978</v>
+        <v>1989</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
       </c>
       <c r="D29">
+        <v>2015</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
         <v>2011</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>143</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>144</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30">
-        <v>1997</v>
-      </c>
-      <c r="E30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" t="s">
-        <v>155</v>
       </c>
       <c r="G30" t="s">
         <v>93</v>
@@ -1843,22 +1836,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>1960</v>
+        <v>1998</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
         <v>84</v>
@@ -1866,442 +1859,465 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>2018</v>
+        <v>1984</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>169</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17">
+      <c r="A34" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
+        <v>1954</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>2006</v>
+      </c>
+      <c r="E36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>1996</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38">
+        <v>1999</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39">
+        <v>2018</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>1968</v>
+      </c>
+      <c r="E40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
         <v>2016</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E41" t="s">
         <v>174</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F41" t="s">
         <v>107</v>
       </c>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36">
-        <v>2010</v>
-      </c>
-      <c r="E36" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17">
-      <c r="A37" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37">
-        <v>2000</v>
-      </c>
-      <c r="E37" t="s">
-        <v>215</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38">
-        <v>2008</v>
-      </c>
-      <c r="E38" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" t="s">
-        <v>185</v>
-      </c>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>1998</v>
-      </c>
-      <c r="E39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17">
-      <c r="A40" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40">
-        <v>1980</v>
-      </c>
-      <c r="E40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17">
-      <c r="A41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41">
-        <v>1994</v>
-      </c>
-      <c r="E41" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" t="s">
-        <v>194</v>
-      </c>
       <c r="G41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17">
-      <c r="A42" s="3" t="s">
-        <v>198</v>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>1989</v>
+        <v>2013</v>
       </c>
       <c r="E42" t="s">
         <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17">
-      <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>93</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="G43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2" t="s">
-        <v>206</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D46">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>213</v>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D47">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G47" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17">
-      <c r="A49" s="3" t="s">
-        <v>218</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>1959</v>
+        <v>2015</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="2" t="s">
-        <v>220</v>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>44</v>
       </c>
       <c r="D50">
-        <v>1968</v>
+        <v>1997</v>
       </c>
       <c r="E50" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H50" xr:uid="{F07D91FD-5B3D-F04B-985D-AAA9FCAE30CD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
+      <sortCondition ref="B1:B50"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2312,7 +2328,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A18"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/notes/Theses_literature_search.xlsx
+++ b/notes/Theses_literature_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0271E402-3F04-1148-9412-D6637CF33AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA054F3-C9BE-6B45-B136-089362B170F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2780" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{D67D09F9-1685-8C41-B847-7489A6CB4ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="229">
   <si>
     <t xml:space="preserve">Darwin Shikra Sodhi collected all the data </t>
   </si>
@@ -654,9 +654,6 @@
     <t>Nienaber</t>
   </si>
   <si>
-    <t>Botwell</t>
-  </si>
-  <si>
     <t>The nitrogen nutrition of lodgepole pine (Pinus contorta var. contorta) and Sitka spruce (Picea sitchensis (Bong.) Carr.) on a cedar-hemlock cutover on northern Vancouver Island</t>
   </si>
   <si>
@@ -715,6 +712,18 @@
   </si>
   <si>
     <t>Douglas fir and Ponderosa pines</t>
+  </si>
+  <si>
+    <t>Bothwell</t>
+  </si>
+  <si>
+    <t>no BC or seedling</t>
+  </si>
+  <si>
+    <t>no BC</t>
+  </si>
+  <si>
+    <t>no bc</t>
   </si>
 </sst>
 </file>
@@ -1094,15 +1103,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB13557E-D59C-CB41-AA95-E530D7F27109}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>175</v>
       </c>
@@ -1226,8 +1235,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B6" t="s">
@@ -1243,18 +1252,18 @@
         <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -1266,14 +1275,17 @@
         <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
+      <c r="H7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -1298,7 +1310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>1997</v>
@@ -1323,8 +1335,11 @@
       <c r="H9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="N9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1350,12 +1365,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17">
+    <row r="11" spans="1:14" ht="17">
       <c r="A11" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" t="s">
         <v>218</v>
-      </c>
-      <c r="B11" t="s">
-        <v>219</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -1373,7 +1388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -1399,12 +1414,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
         <v>208</v>
-      </c>
-      <c r="B13" t="s">
-        <v>209</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -1413,16 +1428,16 @@
         <v>2008</v>
       </c>
       <c r="E13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" t="s">
         <v>210</v>
-      </c>
-      <c r="F13" t="s">
-        <v>211</v>
       </c>
       <c r="G13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17">
+    <row r="14" spans="1:14" ht="17">
       <c r="A14" s="3" t="s">
         <v>193</v>
       </c>
@@ -1445,7 +1460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17">
+    <row r="16" spans="1:14" ht="17">
       <c r="A16" s="3" t="s">
         <v>189</v>
       </c>
@@ -1496,10 +1511,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -1508,10 +1523,10 @@
         <v>1993</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G17" t="s">
         <v>84</v>
@@ -1545,7 +1560,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -1560,7 +1575,7 @@
         <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" t="s">
         <v>84</v>
@@ -1675,7 +1690,7 @@
         <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>180</v>
@@ -1753,7 +1768,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>84</v>
@@ -1812,7 +1827,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B30" t="s">
@@ -1953,7 +1968,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B36" t="s">
@@ -2049,10 +2064,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" t="s">
         <v>220</v>
-      </c>
-      <c r="B40" t="s">
-        <v>221</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -2061,13 +2076,16 @@
         <v>1968</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F40" t="s">
         <v>167</v>
       </c>
       <c r="G40" t="s">
         <v>84</v>
+      </c>
+      <c r="H40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2187,6 +2205,9 @@
       <c r="G45" t="s">
         <v>84</v>
       </c>
+      <c r="H45" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
@@ -2212,7 +2233,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B47" t="s">
@@ -2228,7 +2249,7 @@
         <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G47" t="s">
         <v>84</v>
